--- a/WebApp/WebApp/UploadedFiles/Book1.xlsx
+++ b/WebApp/WebApp/UploadedFiles/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,27 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>C++</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>SlotTime</t>
+  </si>
+  <si>
+    <t>CurrName</t>
+  </si>
+  <si>
+    <t>GO3</t>
+  </si>
+  <si>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>ClassID</t>
   </si>
 </sst>
 </file>
@@ -61,26 +58,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -88,55 +79,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,66 +366,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>